--- a/Document/大棚控制器_远程升级Flash划分.xlsx
+++ b/Document/大棚控制器_远程升级Flash划分.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>类型</t>
   </si>
@@ -33,37 +33,34 @@
     <t>0x0800 0000</t>
   </si>
   <si>
-    <t>20KB</t>
+    <t>128KB</t>
   </si>
   <si>
     <t>App1</t>
   </si>
   <si>
-    <t>0x0800 5000</t>
-  </si>
-  <si>
-    <t>244KB</t>
+    <t>0x0802 0000</t>
+  </si>
+  <si>
+    <t>256KB</t>
   </si>
   <si>
     <t>App2</t>
   </si>
   <si>
-    <t>0x0804 2000</t>
+    <t>0x0806 0000</t>
   </si>
   <si>
     <t>升级参数区</t>
   </si>
   <si>
-    <t>0x0807 F000</t>
-  </si>
-  <si>
-    <t>2KB</t>
+    <t>0x081C 0000</t>
   </si>
   <si>
     <t>用户参数区</t>
   </si>
   <si>
-    <t>0x0807 F800</t>
+    <t>0x081E 0000</t>
   </si>
 </sst>
 </file>
@@ -71,12 +68,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +96,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -108,6 +113,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -115,14 +135,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,67 +158,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +171,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -213,31 +219,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,9 +501,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,17 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,46 +573,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,161 +601,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,12 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,153 +1128,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G3:L15"/>
+  <dimension ref="G2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="2" ht="15.15"/>
     <row r="3" ht="18.9" spans="7:12">
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" ht="15.9" spans="7:12">
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="10"/>
     </row>
-    <row r="5" ht="15.9" spans="7:12">
-      <c r="G5" s="4" t="s">
+    <row r="5" spans="7:12">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" ht="15.9" spans="7:12">
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" ht="15.9" spans="7:12">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="13"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" ht="15.9" spans="7:12">
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="13"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" ht="15.15" spans="7:12">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="7:12">
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="7:12">
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="7:12">
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="7:12">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="7:12">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="7:12">
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/Document/大棚控制器_远程升级Flash划分.xlsx
+++ b/Document/大棚控制器_远程升级Flash划分.xlsx
@@ -68,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,6 +89,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -96,31 +104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,23 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +142,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -178,14 +157,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -196,38 +205,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,31 +290,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,151 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,26 +495,6 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +576,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,145 +604,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1131,7 @@
   <dimension ref="G2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" ht="15.9" spans="7:12">
+    <row r="7" spans="7:12">
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>

--- a/Document/大棚控制器_远程升级Flash划分.xlsx
+++ b/Document/大棚控制器_远程升级Flash划分.xlsx
@@ -68,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -89,6 +89,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -97,20 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -119,13 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -135,54 +189,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,37 +221,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,61 +290,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,121 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,26 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,17 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +543,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1131,7 @@
   <dimension ref="G2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J7"/>
+      <selection activeCell="I14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="7:12">
+    <row r="5" ht="15.9" spans="7:12">
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" ht="15.9" spans="7:12">
+    <row r="8" spans="7:12">
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
